--- a/Testdata/logindata1.xlsx
+++ b/Testdata/logindata1.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,20 +12,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
-  <si>
-    <t>${username1}</t>
-  </si>
-  <si>
-    <t>${password1}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+  <si>
+    <t>${username}</t>
+  </si>
+  <si>
+    <t>${password}</t>
   </si>
   <si>
     <t>${error_msg}</t>
   </si>
   <si>
+    <t>Verify Login Fails - Negative scenario1</t>
+  </si>
+  <si>
     <t>Epic sadface: Username is required</t>
   </si>
   <si>
+    <t>Verify Login Fails - Negative scenario2</t>
+  </si>
+  <si>
     <t>standard_user</t>
   </si>
   <si>
@@ -34,6 +41,9 @@
     <t>Epic sadface: Username and password do not match any user in this service</t>
   </si>
   <si>
+    <t>Verify Login Fails - Negative scenario3</t>
+  </si>
+  <si>
     <t>locked_out_user</t>
   </si>
   <si>
@@ -43,7 +53,13 @@
     <t>Epic sadface: Sorry, this user has been locked out</t>
   </si>
   <si>
+    <t>Verify Login Fails - Negative scenario4</t>
+  </si>
+  <si>
     <t>standard_us</t>
+  </si>
+  <si>
+    <t>Verify Login Fails - Negative scenario5</t>
   </si>
   <si>
     <t>standrad_us</t>
@@ -103,15 +119,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -123,6 +145,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -330,77 +356,119 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.25"/>
-    <col customWidth="1" min="2" max="2" width="18.63"/>
-    <col customWidth="1" min="3" max="3" width="58.13"/>
+    <col customWidth="1" min="1" max="2" width="19.25"/>
+    <col customWidth="1" min="3" max="3" width="18.63"/>
+    <col customWidth="1" min="4" max="4" width="58.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
